--- a/biology/Botanique/Xeronema_callistemon/Xeronema_callistemon.xlsx
+++ b/biology/Botanique/Xeronema_callistemon/Xeronema_callistemon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Xeronema callistemon (Raupo taranga en māori) est une plante vivace très rare de la famille des Liliaceae, ou des Xeronemataceae selon la classification phylogénétique. On la trouve dans les îles Poor Knights dans le nord de la Nouvelle-Zélande. Découverte en 1924, cette plante de 1 m de hauteur a des feuilles qui la font ressembler à un iris, mais ses fleurs rouges forment un épi en forme de brosse, grâce à une multitude de longues étamines.
 </t>
